--- a/Country_data/Comp_fert_prices.xlsx
+++ b/Country_data/Comp_fert_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/salaubol_msu_edu/Documents/Research/Fert_x_Conflict/Country_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{08E8B860-CD4D-4515-97C8-0A26811684C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D898908E-A94F-4C61-A0AD-60F2862764C4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{08E8B860-CD4D-4515-97C8-0A26811684C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9259E3FD-F2E6-415E-BDF4-24075038D9DB}"/>
   <bookViews>
-    <workbookView xWindow="4926" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{EB6458C9-ADDE-4AD6-9463-DF8919E46E57}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EB6458C9-ADDE-4AD6-9463-DF8919E46E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="25">
   <si>
     <t>Country</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>USD price calculated from monthly priceVIFAA</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
   </si>
 </sst>
 </file>
@@ -186,6 +189,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DB5AB9-EC22-43DD-BCB7-628D1F22C453}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -845,7 +852,7 @@
         <v>477.90359999999998</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15:H25" si="3">F15/G15</f>
+        <f t="shared" ref="H15:H22" si="3">F15/G15</f>
         <v>37.777958190731354</v>
       </c>
     </row>
@@ -1080,7 +1087,7 @@
         <v>1201.7462</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:H90" si="5">F26/G26</f>
+        <f t="shared" ref="H26:H89" si="5">F26/G26</f>
         <v>44.320228905238061</v>
       </c>
     </row>
@@ -1267,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" ref="C38:C50" si="7">C37+1</f>
+        <f t="shared" ref="C38:C46" si="7">C37+1</f>
         <v>2012</v>
       </c>
       <c r="F38">
@@ -1511,7 +1518,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ref="C50:C59" si="8">C49+1</f>
+        <f t="shared" ref="C50:C58" si="8">C49+1</f>
         <v>2012</v>
       </c>
       <c r="F50">
@@ -2288,7 +2295,7 @@
         <v>1707.6138000000001</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" ref="H91:H100" si="12">F92/G92</f>
+        <f t="shared" ref="H92:H111" si="12">F92/G92</f>
         <v>47.29842569789492</v>
       </c>
     </row>
@@ -2479,6 +2486,7 @@
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
+      <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
@@ -2489,6 +2497,228 @@
       </c>
       <c r="C102" s="1">
         <f>C101+1</f>
+        <v>2020</v>
+      </c>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>2010</v>
+      </c>
+      <c r="F103">
+        <v>37596</v>
+      </c>
+      <c r="G103">
+        <v>1215.2611999999999</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="12"/>
+        <v>30.936559152880058</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="1">
+        <f>C103+1</f>
+        <v>2011</v>
+      </c>
+      <c r="F104">
+        <v>53245.866670000003</v>
+      </c>
+      <c r="G104">
+        <v>1598.2431999999999</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="12"/>
+        <v>33.315246809747109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:C112" si="14">C104+1</f>
+        <v>2012</v>
+      </c>
+      <c r="F105">
+        <v>74260.222219999996</v>
+      </c>
+      <c r="G105">
+        <v>1584.8551</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="12"/>
+        <v>46.856158787008347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="14"/>
+        <v>2013</v>
+      </c>
+      <c r="F106">
+        <v>66271.217390000005</v>
+      </c>
+      <c r="G106">
+        <v>1616.4280000000001</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="12"/>
+        <v>40.998558172711682</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="14"/>
+        <v>2014</v>
+      </c>
+      <c r="F107">
+        <v>55640.833330000001</v>
+      </c>
+      <c r="G107">
+        <v>1663.7318</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="12"/>
+        <v>33.443391134316244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="14"/>
+        <v>2015</v>
+      </c>
+      <c r="F108">
+        <v>58449</v>
+      </c>
+      <c r="G108">
+        <v>2037.165</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" si="12"/>
+        <v>28.691343116536952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="F109">
+        <v>54966.291669999999</v>
+      </c>
+      <c r="G109">
+        <v>2185.0437999999999</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" si="12"/>
+        <v>25.155693295484511</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="14"/>
+        <v>2017</v>
+      </c>
+      <c r="F110">
+        <v>42692.800000000003</v>
+      </c>
+      <c r="G110">
+        <v>2237.3038000000001</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="12"/>
+        <v>19.082254274095455</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="F111">
+        <v>54685.692309999999</v>
+      </c>
+      <c r="G111">
+        <v>2276.8942000000002</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="12"/>
+        <v>24.017669468348593</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="14"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="1">
+        <f>C112+1</f>
         <v>2020</v>
       </c>
     </row>

--- a/Country_data/Comp_fert_prices.xlsx
+++ b/Country_data/Comp_fert_prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/salaubol_msu_edu/Documents/Research/Fert_x_Conflict/Country_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{08E8B860-CD4D-4515-97C8-0A26811684C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9259E3FD-F2E6-415E-BDF4-24075038D9DB}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{08E8B860-CD4D-4515-97C8-0A26811684C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C89C97-89D3-4184-8F0B-0FCD570234B8}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EB6458C9-ADDE-4AD6-9463-DF8919E46E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="28">
   <si>
     <t>Country</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Tanzania</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Other source</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
 </sst>
 </file>
@@ -192,6 +201,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -492,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DB5AB9-EC22-43DD-BCB7-628D1F22C453}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -505,7 +518,7 @@
     <col min="4" max="4" width="12.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,19 +535,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -544,18 +560,18 @@
       <c r="C2" s="1">
         <v>2010</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1960</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>79.227599999999995</v>
       </c>
-      <c r="H2" s="1">
-        <f>F2/G2</f>
+      <c r="I2" s="1">
+        <f>G2/H2</f>
         <v>24.738853631815179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -566,18 +582,18 @@
         <f>C2+1</f>
         <v>2011</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2832</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>88.671300000000002</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H8" si="0">F3/G3</f>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I8" si="0">G3/H3</f>
         <v>31.93818067401741</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -588,18 +604,18 @@
         <f t="shared" ref="C4:C8" si="1">C3+1</f>
         <v>2012</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>3395</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>84.493700000000004</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>40.180510499599379</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -610,18 +626,18 @@
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3172</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>86.115600000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>36.834208900594085</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -632,18 +648,18 @@
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2735</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>87.948099999999997</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>31.097886139666464</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -654,18 +670,18 @@
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2749</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>98.236699999999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>27.983431853879456</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -676,18 +692,18 @@
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>2517</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>101.50449999999999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>24.796930185361241</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -703,18 +719,18 @@
       <c r="E9" s="2">
         <v>2435</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>2450</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>103.3896</v>
       </c>
-      <c r="H9" s="1">
-        <f>F9/G9</f>
+      <c r="I9" s="1">
+        <f>G9/H9</f>
         <v>23.6967741436276</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -731,21 +747,21 @@
       <c r="E10" s="3">
         <v>2542</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2486</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>101.2881</v>
       </c>
-      <c r="H10" s="3">
-        <f>F10/G10</f>
+      <c r="I10" s="3">
+        <f>G10/H10</f>
         <v>24.54385065965301</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24.834166669999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -759,12 +775,12 @@
       <c r="D11" s="3">
         <v>26.61</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="I11" s="3">
+      <c r="H11" s="4"/>
+      <c r="J11" s="3">
         <v>26.232500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -778,12 +794,12 @@
       <c r="D12" s="3">
         <v>23.81</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="I12" s="3">
+      <c r="H12" s="4"/>
+      <c r="J12" s="3">
         <v>24.294166669999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -799,21 +815,21 @@
       <c r="E13">
         <v>17097</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>17217</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>555.90049999999997</v>
       </c>
-      <c r="H13" s="1">
-        <f>F13/G13</f>
+      <c r="I13" s="1">
+        <f>G13/H13</f>
         <v>30.971369876443717</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>31.3825</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -823,18 +839,18 @@
       <c r="C14" s="1">
         <v>2010</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>16474.333330000001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>501.34890000000001</v>
       </c>
-      <c r="H14" s="1">
-        <f>F14/G14</f>
+      <c r="I14" s="1">
+        <f>G14/H14</f>
         <v>32.860016906389944</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -845,18 +861,18 @@
         <f>C14+1</f>
         <v>2011</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>18054.22222</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>477.90359999999998</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" ref="H15:H22" si="3">F15/G15</f>
+      <c r="I15" s="1">
+        <f t="shared" ref="I15:I22" si="3">G15/H15</f>
         <v>37.777958190731354</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -867,18 +883,18 @@
         <f t="shared" ref="C16:C24" si="4">C15+1</f>
         <v>2012</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>18601</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>510.72050000000002</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="3"/>
         <v>36.421095295763536</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -889,18 +905,18 @@
         <f t="shared" si="4"/>
         <v>2013</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>18386.900000000001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>494.18920000000003</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="3"/>
         <v>37.206195521877049</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -911,18 +927,18 @@
         <f t="shared" si="4"/>
         <v>2014</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>16693</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>494.84859999999998</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="3"/>
         <v>33.733550019137169</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -933,18 +949,18 @@
         <f t="shared" si="4"/>
         <v>2015</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>16684.166669999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>591.75469999999996</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="3"/>
         <v>28.194396546406814</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -955,18 +971,18 @@
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>16587.684209999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>595.56780000000003</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="3"/>
         <v>27.851882203839761</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -977,21 +993,21 @@
         <f t="shared" si="4"/>
         <v>2017</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>15810.666670000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>582.21519999999998</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="3"/>
         <v>27.156052727582516</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>26.682500000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1002,21 +1018,21 @@
         <f t="shared" si="4"/>
         <v>2018</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>14124.6</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>555.90049999999997</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="3"/>
         <v>25.408503859953356</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>24.797499999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1027,12 +1043,12 @@
         <f t="shared" si="4"/>
         <v>2019</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23">
+      <c r="I23" s="1"/>
+      <c r="J23">
         <v>25.71166667</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1043,12 +1059,12 @@
         <f t="shared" si="4"/>
         <v>2020</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24">
+      <c r="I24" s="1"/>
+      <c r="J24">
         <v>26.355</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1058,18 +1074,18 @@
       <c r="C25" s="1">
         <v>2010</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>41306.5</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>957.76639999999998</v>
       </c>
-      <c r="H25" s="1">
-        <f>F25/G25</f>
+      <c r="I25" s="1">
+        <f>G25/H25</f>
         <v>43.127948526905932</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1080,18 +1096,18 @@
         <f>C25+1</f>
         <v>2011</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>53261.666669999999</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1201.7462</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" ref="H26:H89" si="5">F26/G26</f>
+      <c r="I26" s="1">
+        <f t="shared" ref="I26:I89" si="5">G26/H26</f>
         <v>44.320228905238061</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1102,9 +1118,9 @@
         <f t="shared" ref="C27:C34" si="6">C26+1</f>
         <v>2012</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1115,9 +1131,9 @@
         <f t="shared" si="6"/>
         <v>2013</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1128,9 +1144,9 @@
         <f t="shared" si="6"/>
         <v>2014</v>
       </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1141,18 +1157,18 @@
         <f t="shared" si="6"/>
         <v>2015</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>68000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1566.1984</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <f t="shared" si="5"/>
         <v>43.417232452797805</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1163,18 +1179,18 @@
         <f t="shared" si="6"/>
         <v>2016</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>138625</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1616.7419</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <f t="shared" si="5"/>
         <v>85.743432516965143</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1185,9 +1201,9 @@
         <f t="shared" si="6"/>
         <v>2017</v>
       </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1198,9 +1214,9 @@
         <f t="shared" si="6"/>
         <v>2018</v>
       </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1211,12 +1227,12 @@
         <f t="shared" si="6"/>
         <v>2019</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34">
+      <c r="I34" s="1"/>
+      <c r="J34">
         <v>42.041666669999998</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1227,12 +1243,12 @@
         <f>C34+1</f>
         <v>2020</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" t="s">
+      <c r="I35" s="1"/>
+      <c r="J35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1242,9 +1258,9 @@
       <c r="C36">
         <v>2010</v>
       </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1255,18 +1271,18 @@
         <f>C36+1</f>
         <v>2011</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>18551.666669999999</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>477.90359999999998</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <f t="shared" si="5"/>
         <v>38.818846876231945</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1277,18 +1293,18 @@
         <f t="shared" ref="C38:C46" si="7">C37+1</f>
         <v>2012</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>17954.833330000001</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>510.72050000000002</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <f t="shared" si="5"/>
         <v>35.155889238830241</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1299,18 +1315,18 @@
         <f t="shared" si="7"/>
         <v>2013</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>20323.77778</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>494.18920000000003</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <f t="shared" si="5"/>
         <v>41.12549966692918</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1321,18 +1337,18 @@
         <f t="shared" si="7"/>
         <v>2014</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>16643.2</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>494.84859999999998</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <f t="shared" si="5"/>
         <v>33.632913177889158</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -1343,18 +1359,18 @@
         <f t="shared" si="7"/>
         <v>2015</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>16708.375</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>591.75469999999996</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <f t="shared" si="5"/>
         <v>28.23530594687292</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1365,18 +1381,18 @@
         <f t="shared" si="7"/>
         <v>2016</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>15697.666670000001</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>595.56780000000003</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <f t="shared" si="5"/>
         <v>26.35748049172571</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1387,18 +1403,18 @@
         <f t="shared" si="7"/>
         <v>2017</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>15262.235290000001</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>582.21519999999998</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <f t="shared" si="5"/>
         <v>26.214079072480416</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1409,18 +1425,18 @@
         <f t="shared" si="7"/>
         <v>2018</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>14821.42857</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>555.90049999999997</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <f t="shared" si="5"/>
         <v>26.662016979657331</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1431,12 +1447,12 @@
         <f t="shared" si="7"/>
         <v>2019</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" t="s">
+      <c r="I45" s="1"/>
+      <c r="J45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1447,12 +1463,12 @@
         <f t="shared" si="7"/>
         <v>2020</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46">
+      <c r="I46" s="1"/>
+      <c r="J46">
         <v>24.590833329999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1462,9 +1478,9 @@
       <c r="C47" s="2">
         <v>2010</v>
       </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1474,18 +1490,18 @@
       <c r="C48" s="1">
         <v>2010</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>14582</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>501.34890000000001</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <f t="shared" si="5"/>
         <v>29.085533048940569</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1499,18 +1515,18 @@
       <c r="D49">
         <v>34.506363639999996</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>15939.666670000001</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>477.90359999999998</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <f t="shared" si="5"/>
         <v>33.353309474965243</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1521,18 +1537,18 @@
         <f t="shared" ref="C50:C58" si="8">C49+1</f>
         <v>2012</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>17664.5</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>510.72050000000002</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <f t="shared" si="5"/>
         <v>34.58741131401618</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1543,18 +1559,18 @@
         <f t="shared" si="8"/>
         <v>2013</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>18761.25</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>494.18920000000003</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <f t="shared" si="5"/>
         <v>37.96369892340828</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1565,18 +1581,18 @@
         <f t="shared" si="8"/>
         <v>2014</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>15863</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>494.84859999999998</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <f t="shared" si="5"/>
         <v>32.056269331670336</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1587,18 +1603,18 @@
         <f t="shared" si="8"/>
         <v>2015</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>16729.166669999999</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>591.75469999999996</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <f t="shared" si="5"/>
         <v>28.270441569792347</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1609,18 +1625,18 @@
         <f t="shared" si="8"/>
         <v>2016</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>15926.26316</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>595.56780000000003</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <f t="shared" si="5"/>
         <v>26.741309990231169</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1631,18 +1647,18 @@
         <f t="shared" si="8"/>
         <v>2017</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>14463.64286</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>582.21519999999998</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <f t="shared" si="5"/>
         <v>24.842434309513045</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1653,18 +1669,18 @@
         <f t="shared" si="8"/>
         <v>2018</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>14359</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>555.90049999999997</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <f t="shared" si="5"/>
         <v>25.830162052381677</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1675,12 +1691,12 @@
         <f t="shared" si="8"/>
         <v>2019</v>
       </c>
-      <c r="H57" s="1"/>
-      <c r="I57" t="s">
+      <c r="I57" s="1"/>
+      <c r="J57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -1691,12 +1707,12 @@
         <f t="shared" si="8"/>
         <v>2020</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58">
+      <c r="I58" s="1"/>
+      <c r="J58">
         <v>27.321666669999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -1706,12 +1722,12 @@
       <c r="C59" s="1">
         <v>2010</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>1240.5999999999999</v>
       </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -1722,12 +1738,12 @@
         <f>C59+1</f>
         <v>2011</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>1431.230769</v>
       </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -1738,12 +1754,12 @@
         <f t="shared" ref="C61:C68" si="9">C60+1</f>
         <v>2012</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>1577.538462</v>
       </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -1754,12 +1770,12 @@
         <f t="shared" si="9"/>
         <v>2013</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1462.5714290000001</v>
       </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -1770,18 +1786,18 @@
         <f t="shared" si="9"/>
         <v>2014</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>1410.333333</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>31.503699999999998</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <f t="shared" si="5"/>
         <v>44.767228389046366</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -1792,18 +1808,18 @@
         <f t="shared" si="9"/>
         <v>2015</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>1584.2222220000001</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>36.054200000000002</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <f t="shared" si="5"/>
         <v>43.940018694077253</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -1814,18 +1830,18 @@
         <f t="shared" si="9"/>
         <v>2016</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>1636.058824</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>54.465000000000003</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <f t="shared" si="5"/>
         <v>30.038718883686769</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1836,18 +1852,18 @@
         <f t="shared" si="9"/>
         <v>2017</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>1914.666667</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>70.44</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <f t="shared" si="5"/>
         <v>27.181525653038047</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -1858,18 +1874,18 @@
         <f t="shared" si="9"/>
         <v>2018</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>2090.625</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>59.54</v>
       </c>
-      <c r="H67" s="1">
+      <c r="I67" s="1">
         <f t="shared" si="5"/>
         <v>35.112949277796439</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -1880,12 +1896,12 @@
         <f t="shared" si="9"/>
         <v>2019</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>63.564999999999998</v>
       </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -1896,12 +1912,12 @@
         <f>C68+1</f>
         <v>2020</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>68.639899999999997</v>
       </c>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -1911,18 +1927,18 @@
       <c r="C70">
         <v>2010</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>13962</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>501.34890000000001</v>
       </c>
-      <c r="H70" s="1">
+      <c r="I70" s="1">
         <f t="shared" si="5"/>
         <v>27.848869320347564</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -1933,18 +1949,18 @@
         <f>C70+1</f>
         <v>2011</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>15010.666670000001</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>477.90359999999998</v>
       </c>
-      <c r="H71" s="1">
+      <c r="I71" s="1">
         <f t="shared" si="5"/>
         <v>31.409402795877664</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1955,18 +1971,18 @@
         <f t="shared" ref="C72:C80" si="10">C71+1</f>
         <v>2012</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>15538.375</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>510.72050000000002</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <f t="shared" si="5"/>
         <v>30.424420010553717</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -1977,18 +1993,18 @@
         <f t="shared" si="10"/>
         <v>2013</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>16910.444439999999</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>494.18920000000003</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <f t="shared" si="5"/>
         <v>34.21856333566172</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1999,12 +2015,12 @@
         <f t="shared" si="10"/>
         <v>2014</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>494.84859999999998</v>
       </c>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2015,12 +2031,12 @@
         <f t="shared" si="10"/>
         <v>2015</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>591.75469999999996</v>
       </c>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2031,12 +2047,12 @@
         <f t="shared" si="10"/>
         <v>2016</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>595.56780000000003</v>
       </c>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -2047,12 +2063,12 @@
         <f t="shared" si="10"/>
         <v>2017</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>582.21519999999998</v>
       </c>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2063,12 +2079,12 @@
         <f t="shared" si="10"/>
         <v>2018</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>555.90049999999997</v>
       </c>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -2079,12 +2095,12 @@
         <f t="shared" si="10"/>
         <v>2019</v>
       </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1" t="s">
+      <c r="I79" s="1"/>
+      <c r="J79" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2095,12 +2111,12 @@
         <f t="shared" si="10"/>
         <v>2020</v>
       </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1" t="s">
+      <c r="I80" s="1"/>
+      <c r="J80" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -2110,9 +2126,9 @@
       <c r="C81">
         <v>2010</v>
       </c>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -2123,9 +2139,9 @@
         <f>C81+1</f>
         <v>2011</v>
       </c>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -2136,9 +2152,9 @@
         <f t="shared" ref="C83:C91" si="11">C82+1</f>
         <v>2012</v>
       </c>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -2149,9 +2165,9 @@
         <f t="shared" si="11"/>
         <v>2013</v>
       </c>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -2162,9 +2178,9 @@
         <f t="shared" si="11"/>
         <v>2014</v>
       </c>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2175,18 +2191,18 @@
         <f t="shared" si="11"/>
         <v>2015</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>27843.181820000002</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>712.31330000000003</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="1">
         <f t="shared" si="5"/>
         <v>39.088392453152288</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2197,18 +2213,18 @@
         <f t="shared" si="11"/>
         <v>2016</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>27765.909090000001</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>779.90470000000005</v>
       </c>
-      <c r="H87" s="1">
+      <c r="I87" s="1">
         <f t="shared" si="5"/>
         <v>35.601669139832083</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -2219,18 +2235,18 @@
         <f t="shared" si="11"/>
         <v>2017</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>25650</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>838.66229999999996</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <f t="shared" si="5"/>
         <v>30.584419974523716</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -2241,18 +2257,18 @@
         <f t="shared" si="11"/>
         <v>2018</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>25650</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>868.79510000000005</v>
       </c>
-      <c r="H89" s="1">
+      <c r="I89" s="1">
         <f t="shared" si="5"/>
         <v>29.523647175266063</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -2263,9 +2279,9 @@
         <f t="shared" si="11"/>
         <v>2019</v>
       </c>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -2276,9 +2292,9 @@
         <f t="shared" si="11"/>
         <v>2020</v>
       </c>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2288,18 +2304,18 @@
       <c r="C92">
         <v>2010</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>80767.444440000007</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>1707.6138000000001</v>
       </c>
-      <c r="H92" s="1">
-        <f t="shared" ref="H92:H111" si="12">F92/G92</f>
+      <c r="I92" s="1">
+        <f t="shared" ref="I92:I110" si="12">G92/H92</f>
         <v>47.29842569789492</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -2310,18 +2326,18 @@
         <f>C92+1</f>
         <v>2011</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>101575.4</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>2412.5871000000002</v>
       </c>
-      <c r="H93" s="1">
+      <c r="I93" s="1">
         <f t="shared" si="12"/>
         <v>42.102272701366921</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -2332,18 +2348,18 @@
         <f t="shared" ref="C94:C101" si="13">C93+1</f>
         <v>2012</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>127013.81819999999</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>2507.2646</v>
       </c>
-      <c r="H94" s="1">
+      <c r="I94" s="1">
         <f t="shared" si="12"/>
         <v>50.658322300725658</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -2354,18 +2370,18 @@
         <f t="shared" si="13"/>
         <v>2013</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>121246</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>2586.4749000000002</v>
       </c>
-      <c r="H95" s="1">
+      <c r="I95" s="1">
         <f t="shared" si="12"/>
         <v>46.876928904278174</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -2376,18 +2392,18 @@
         <f t="shared" si="13"/>
         <v>2014</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>110918.18180000001</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>2598.2617</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <f t="shared" si="12"/>
         <v>42.68938028836741</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -2398,18 +2414,18 @@
         <f t="shared" si="13"/>
         <v>2015</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>117207.7647</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>3238.442</v>
       </c>
-      <c r="H97" s="1">
+      <c r="I97" s="1">
         <f t="shared" si="12"/>
         <v>36.192639763194769</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -2420,18 +2436,18 @@
         <f t="shared" si="13"/>
         <v>2016</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>110166.6667</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>3417.4376999999999</v>
       </c>
-      <c r="H98" s="1">
+      <c r="I98" s="1">
         <f t="shared" si="12"/>
         <v>32.236627664053685</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -2442,18 +2458,18 @@
         <f t="shared" si="13"/>
         <v>2017</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>104745.38890000001</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>3616.2474999999999</v>
       </c>
-      <c r="H99" s="1">
+      <c r="I99" s="1">
         <f t="shared" si="12"/>
         <v>28.965215710484419</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -2464,18 +2480,18 @@
         <f t="shared" si="13"/>
         <v>2018</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>108516.65</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>3726.5663</v>
       </c>
-      <c r="H100" s="1">
+      <c r="I100" s="1">
         <f t="shared" si="12"/>
         <v>29.119742214166429</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -2486,9 +2502,9 @@
         <f t="shared" si="13"/>
         <v>2019</v>
       </c>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -2499,9 +2515,9 @@
         <f>C101+1</f>
         <v>2020</v>
       </c>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -2511,18 +2527,18 @@
       <c r="C103">
         <v>2010</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>37596</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>1215.2611999999999</v>
       </c>
-      <c r="H103" s="1">
+      <c r="I103" s="1">
         <f t="shared" si="12"/>
         <v>30.936559152880058</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -2533,18 +2549,18 @@
         <f>C103+1</f>
         <v>2011</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>53245.866670000003</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>1598.2431999999999</v>
       </c>
-      <c r="H104" s="1">
+      <c r="I104" s="1">
         <f t="shared" si="12"/>
         <v>33.315246809747109</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -2555,18 +2571,18 @@
         <f t="shared" ref="C105:C112" si="14">C104+1</f>
         <v>2012</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>74260.222219999996</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>1584.8551</v>
       </c>
-      <c r="H105" s="1">
+      <c r="I105" s="1">
         <f t="shared" si="12"/>
         <v>46.856158787008347</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -2577,18 +2593,18 @@
         <f t="shared" si="14"/>
         <v>2013</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>66271.217390000005</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>1616.4280000000001</v>
       </c>
-      <c r="H106" s="1">
+      <c r="I106" s="1">
         <f t="shared" si="12"/>
         <v>40.998558172711682</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -2599,18 +2615,18 @@
         <f t="shared" si="14"/>
         <v>2014</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>55640.833330000001</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>1663.7318</v>
       </c>
-      <c r="H107" s="1">
+      <c r="I107" s="1">
         <f t="shared" si="12"/>
         <v>33.443391134316244</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -2621,18 +2637,18 @@
         <f t="shared" si="14"/>
         <v>2015</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>58449</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>2037.165</v>
       </c>
-      <c r="H108" s="1">
+      <c r="I108" s="1">
         <f t="shared" si="12"/>
         <v>28.691343116536952</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -2643,18 +2659,18 @@
         <f t="shared" si="14"/>
         <v>2016</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>54966.291669999999</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>2185.0437999999999</v>
       </c>
-      <c r="H109" s="1">
+      <c r="I109" s="1">
         <f t="shared" si="12"/>
         <v>25.155693295484511</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -2665,18 +2681,18 @@
         <f t="shared" si="14"/>
         <v>2017</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>42692.800000000003</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>2237.3038000000001</v>
       </c>
-      <c r="H110" s="1">
+      <c r="I110" s="1">
         <f t="shared" si="12"/>
         <v>19.082254274095455</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -2687,18 +2703,18 @@
         <f t="shared" si="14"/>
         <v>2018</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>54685.692309999999</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>2276.8942000000002</v>
       </c>
-      <c r="H111" s="1">
-        <f t="shared" si="12"/>
+      <c r="I111" s="1">
+        <f>G111/H111</f>
         <v>24.017669468348593</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -2710,7 +2726,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -2720,6 +2736,425 @@
       <c r="C113" s="1">
         <f>C112+1</f>
         <v>2020</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>2010</v>
+      </c>
+      <c r="F114">
+        <v>4381</v>
+      </c>
+      <c r="H114">
+        <v>7.3136999999999999</v>
+      </c>
+      <c r="I114" s="1">
+        <f>F114/H114</f>
+        <v>599.01281157280175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="1">
+        <f>C114+1</f>
+        <v>2011</v>
+      </c>
+      <c r="F115">
+        <v>5640</v>
+      </c>
+      <c r="H115">
+        <v>7.2572999999999999</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" ref="I115:I135" si="15">F115/H115</f>
+        <v>777.1485263114381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" ref="C116:C124" si="16">C115+1</f>
+        <v>2012</v>
+      </c>
+      <c r="F116">
+        <v>6172</v>
+      </c>
+      <c r="H116">
+        <v>8.2114999999999991</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" si="15"/>
+        <v>751.6288132497109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="16"/>
+        <v>2013</v>
+      </c>
+      <c r="F117">
+        <v>6181</v>
+      </c>
+      <c r="H117">
+        <v>9.6508000000000003</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" si="15"/>
+        <v>640.46503916773736</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="16"/>
+        <v>2014</v>
+      </c>
+      <c r="F118">
+        <v>6258</v>
+      </c>
+      <c r="H118">
+        <v>10.847200000000001</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" si="15"/>
+        <v>576.92307692307691</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="16"/>
+        <v>2015</v>
+      </c>
+      <c r="F119">
+        <v>6310</v>
+      </c>
+      <c r="H119">
+        <v>12.7776</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" si="15"/>
+        <v>493.8329576759329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="16"/>
+        <v>2016</v>
+      </c>
+      <c r="F120">
+        <v>5834</v>
+      </c>
+      <c r="H120">
+        <v>14.7049</v>
+      </c>
+      <c r="I120" s="1">
+        <f t="shared" si="15"/>
+        <v>396.73850213194243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="16"/>
+        <v>2017</v>
+      </c>
+      <c r="F121">
+        <v>5269</v>
+      </c>
+      <c r="H121">
+        <v>13.3055</v>
+      </c>
+      <c r="I121" s="1">
+        <f t="shared" si="15"/>
+        <v>396.00165345158018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="16"/>
+        <v>2018</v>
+      </c>
+      <c r="F122">
+        <v>5610</v>
+      </c>
+      <c r="H122">
+        <v>13.248799999999999</v>
+      </c>
+      <c r="I122" s="1">
+        <f t="shared" si="15"/>
+        <v>423.43457520681119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="16"/>
+        <v>2019</v>
+      </c>
+      <c r="F123">
+        <v>6664</v>
+      </c>
+      <c r="H123">
+        <v>14.4496</v>
+      </c>
+      <c r="I123" s="1">
+        <f t="shared" si="15"/>
+        <v>461.18923707230647</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="16"/>
+        <v>2020</v>
+      </c>
+      <c r="F124">
+        <v>6860</v>
+      </c>
+      <c r="H124">
+        <v>16.471900000000002</v>
+      </c>
+      <c r="I124" s="1">
+        <f t="shared" si="15"/>
+        <v>416.4668313916427</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2010</v>
+      </c>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1">
+        <f>C125+1</f>
+        <v>2011</v>
+      </c>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" ref="C127:C134" si="17">C126+1</f>
+        <v>2012</v>
+      </c>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="17"/>
+        <v>2013</v>
+      </c>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="17"/>
+        <v>2014</v>
+      </c>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="17"/>
+        <v>2015</v>
+      </c>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="17"/>
+        <v>2016</v>
+      </c>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="17"/>
+        <v>2017</v>
+      </c>
+      <c r="F132">
+        <v>326</v>
+      </c>
+      <c r="H132">
+        <v>13.305400000000001</v>
+      </c>
+      <c r="I132" s="1">
+        <f t="shared" si="15"/>
+        <v>24.501330286951163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+      <c r="F133">
+        <v>341</v>
+      </c>
+      <c r="H133">
+        <v>13.2311</v>
+      </c>
+      <c r="I133" s="1">
+        <f t="shared" si="15"/>
+        <v>25.772611498666024</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="17"/>
+        <v>2019</v>
+      </c>
+      <c r="F134">
+        <v>376</v>
+      </c>
+      <c r="H134">
+        <v>14.5069</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" si="15"/>
+        <v>25.918700756191882</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1">
+        <f>C134+1</f>
+        <v>2020</v>
+      </c>
+      <c r="F135">
+        <v>359</v>
+      </c>
+      <c r="H135">
+        <v>16.484000000000002</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" si="15"/>
+        <v>21.778694491628244</v>
       </c>
     </row>
   </sheetData>

--- a/Country_data/Comp_fert_prices.xlsx
+++ b/Country_data/Comp_fert_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/salaubol_msu_edu/Documents/Research/Fert_x_Conflict/Country_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{08E8B860-CD4D-4515-97C8-0A26811684C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C89C97-89D3-4184-8F0B-0FCD570234B8}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{08E8B860-CD4D-4515-97C8-0A26811684C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0068FE14-92B4-4276-BC0F-8FB78FF19111}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EB6458C9-ADDE-4AD6-9463-DF8919E46E57}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EB6458C9-ADDE-4AD6-9463-DF8919E46E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,6 +205,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -508,8 +512,8 @@
   <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1725,7 +1729,13 @@
       <c r="G59">
         <v>1240.5999999999999</v>
       </c>
-      <c r="I59" s="1"/>
+      <c r="H59">
+        <v>34.138416669999998</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="5"/>
+        <v>36.340291115205957</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
@@ -1741,7 +1751,13 @@
       <c r="G60">
         <v>1431.230769</v>
       </c>
-      <c r="I60" s="1"/>
+      <c r="H60">
+        <v>28.852699999999999</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="5"/>
+        <v>49.604743022316804</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
@@ -1757,7 +1773,13 @@
       <c r="G61">
         <v>1577.538462</v>
       </c>
-      <c r="I61" s="1"/>
+      <c r="H61">
+        <v>28.138000000000002</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="5"/>
+        <v>56.064342241808227</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
@@ -1773,7 +1795,13 @@
       <c r="G62">
         <v>1462.5714290000001</v>
       </c>
-      <c r="I62" s="1"/>
+      <c r="H62">
+        <v>29.916899999999998</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="5"/>
+        <v>48.887800173146289</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
@@ -1790,11 +1818,11 @@
         <v>1410.333333</v>
       </c>
       <c r="H63">
-        <v>31.503699999999998</v>
+        <v>31.265000000000001</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="5"/>
-        <v>44.767228389046366</v>
+        <v>45.109014329122019</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1812,11 +1840,11 @@
         <v>1584.2222220000001</v>
       </c>
       <c r="H64">
-        <v>36.054200000000002</v>
+        <v>38.832799999999999</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="5"/>
-        <v>43.940018694077253</v>
+        <v>40.795982313920192</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1834,11 +1862,11 @@
         <v>1636.058824</v>
       </c>
       <c r="H65">
-        <v>54.465000000000003</v>
+        <v>62.546300000000002</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="5"/>
-        <v>30.038718883686769</v>
+        <v>26.157563660840047</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1856,11 +1884,11 @@
         <v>1914.666667</v>
       </c>
       <c r="H66">
-        <v>70.44</v>
+        <v>64.159400000000005</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="5"/>
-        <v>27.181525653038047</v>
+        <v>29.842340592337209</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1878,11 +1906,11 @@
         <v>2090.625</v>
       </c>
       <c r="H67">
-        <v>59.54</v>
+        <v>59.957500000000003</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" si="5"/>
-        <v>35.112949277796439</v>
+        <v>34.868448484343077</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1896,9 +1924,6 @@
         <f t="shared" si="9"/>
         <v>2019</v>
       </c>
-      <c r="H68">
-        <v>63.564999999999998</v>
-      </c>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1911,9 +1936,6 @@
       <c r="C69" s="1">
         <f>C68+1</f>
         <v>2020</v>
-      </c>
-      <c r="H69">
-        <v>68.639899999999997</v>
       </c>
       <c r="I69" s="1"/>
     </row>
